--- a/static/download/bk_nodeman_info_zh.xlsx
+++ b/static/download/bk_nodeman_info_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hitozhang/workspace/nodeman/bk_nodeman/static/download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387C9490-EAA9-5F4B-844A-CEAF50483844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136E2E7-27B1-4B98-977C-84B51E36E205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3420" windowWidth="24765" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>IP地址</t>
   </si>
@@ -115,9 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传输限速（可选）</t>
-  </si>
-  <si>
     <t>认证方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +124,21 @@
   </si>
   <si>
     <t>BT节点探测（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输限速 M/s（可选）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,24 +523,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,123 +548,135 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="b">
+      <c r="M2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>445</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
         <v>66666</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
         <v>8080</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8888888888</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -661,7 +685,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B2 F2:G2 D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B2 G2:H2 E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/download/bk_nodeman_info_zh.xlsx
+++ b/static/download/bk_nodeman_info_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hitozhang/workspace/nodeman/bk_nodeman/static/download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387C9490-EAA9-5F4B-844A-CEAF50483844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C3ABE-BA89-4406-8D52-7D23F80DCD50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>IP地址</t>
   </si>
@@ -127,6 +127,17 @@
   </si>
   <si>
     <t>BT节点探测（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装通道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,24 +522,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,123 +547,135 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="b">
+      <c r="M2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
         <v>445</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>66666</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <v>8080</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8888888888</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -661,7 +684,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B2 F2:G2 D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B2 G2:H2 E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/download/bk_nodeman_info_zh.xlsx
+++ b/static/download/bk_nodeman_info_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136E2E7-27B1-4B98-977C-84B51E36E205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F678956-B2BB-44D3-A22A-CB086D9E24F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3420" windowWidth="24765" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1515" yWindow="930" windowWidth="27525" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>IP地址</t>
   </si>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>传输限速 M/s（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态寻址（可选）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -538,9 +542,10 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
     <col min="14" max="14" width="24.125" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +588,11 @@
       <c r="N1" t="s">
         <v>31</v>
       </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -618,8 +626,11 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -651,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>

--- a/static/download/bk_nodeman_info_zh.xlsx
+++ b/static/download/bk_nodeman_info_zh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F678956-B2BB-44D3-A22A-CB086D9E24F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD7357-CA3A-4698-982B-75679AB71AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1515" yWindow="930" windowWidth="27525" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="27525" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>IP地址</t>
   </si>
@@ -142,7 +142,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态寻址（可选）</t>
+    <t>寻址方式（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +538,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -626,8 +634,8 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="b">
-        <v>1</v>
+      <c r="O2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -660,6 +668,9 @@
       </c>
       <c r="N3">
         <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">

--- a/static/download/bk_nodeman_info_zh.xlsx
+++ b/static/download/bk_nodeman_info_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136E2E7-27B1-4B98-977C-84B51E36E205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD7357-CA3A-4698-982B-75679AB71AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3420" windowWidth="24765" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="27525" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>IP地址</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>传输限速 M/s（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻址方式（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -538,9 +550,10 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
     <col min="14" max="14" width="24.125" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +596,11 @@
       <c r="N1" t="s">
         <v>31</v>
       </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -618,8 +634,11 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -650,8 +669,11 @@
       <c r="N3">
         <v>3</v>
       </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>

--- a/static/download/bk_nodeman_info_zh.xlsx
+++ b/static/download/bk_nodeman_info_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD7357-CA3A-4698-982B-75679AB71AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C7039D-FD19-4406-B7DF-FC512DAB7630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="27525" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1275" windowWidth="28320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>IP地址</t>
   </si>
@@ -139,18 +139,6 @@
   </si>
   <si>
     <t>传输限速 M/s（可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻址方式（可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -553,7 +541,7 @@
     <col min="15" max="15" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,11 +584,8 @@
       <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -634,11 +619,8 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -669,11 +651,8 @@
       <c r="N3">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
